--- a/data/raw_analysis/price_zero_by_manufacturer.xlsx
+++ b/data/raw_analysis/price_zero_by_manufacturer.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="177" uniqueCount="177">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="103" uniqueCount="103">
   <si>
     <t>Price</t>
   </si>
@@ -46,21 +46,12 @@
     <t>3R RUBBER MANUFACTURING IND.E COM.LTDA</t>
   </si>
   <si>
-    <t>A J E</t>
-  </si>
-  <si>
     <t>ALMAPY AUTOMOTIVE</t>
   </si>
   <si>
     <t>ALPENFIX</t>
   </si>
   <si>
-    <t>APLIC</t>
-  </si>
-  <si>
-    <t>ATE FREIOS</t>
-  </si>
-  <si>
     <t>ATEMIS</t>
   </si>
   <si>
@@ -79,15 +70,9 @@
     <t>BIRTH</t>
   </si>
   <si>
-    <t>BOSCH</t>
-  </si>
-  <si>
     <t>BROGLIPLAST</t>
   </si>
   <si>
-    <t>BROSOL</t>
-  </si>
-  <si>
     <t>BRW&amp; KITS ESTABILIZADOR</t>
   </si>
   <si>
@@ -100,54 +85,24 @@
     <t>CINDUMEL</t>
   </si>
   <si>
-    <t>COBREQ</t>
-  </si>
-  <si>
-    <t>COFAP</t>
-  </si>
-  <si>
-    <t>COFAP / BANDEJAS</t>
-  </si>
-  <si>
     <t>COMERCIAL DE AUTOPECAS KYB DO BRASIL LTDA</t>
   </si>
   <si>
     <t>CONTINENTAL IND. E COM.DE PEC. DE REP. AUTOM. LTDA</t>
   </si>
   <si>
-    <t>CONTITECH</t>
-  </si>
-  <si>
-    <t>CONTROIL FREIOS</t>
-  </si>
-  <si>
     <t>CORTECO</t>
   </si>
   <si>
     <t>DANA INDUSTRIAS LTDA</t>
   </si>
   <si>
-    <t>DAYCO</t>
-  </si>
-  <si>
     <t>DEFABRI</t>
   </si>
   <si>
-    <t>DELPHI</t>
-  </si>
-  <si>
-    <t>DENSO</t>
-  </si>
-  <si>
-    <t>DHF</t>
-  </si>
-  <si>
     <t>DSC</t>
   </si>
   <si>
-    <t>DYNA</t>
-  </si>
-  <si>
     <t>EAGLE DO BRASIL LTDA</t>
   </si>
   <si>
@@ -166,9 +121,6 @@
     <t>EXPEDITUBO</t>
   </si>
   <si>
-    <t>FAG</t>
-  </si>
-  <si>
     <t>FECT</t>
   </si>
   <si>
@@ -184,15 +136,6 @@
     <t>FOFINHO AUTO PECAS LTDA.</t>
   </si>
   <si>
-    <t>FRAM</t>
-  </si>
-  <si>
-    <t>FRAS-LE</t>
-  </si>
-  <si>
-    <t>FREMAX</t>
-  </si>
-  <si>
     <t>GATES</t>
   </si>
   <si>
@@ -202,9 +145,6 @@
     <t>GETOFLEX</t>
   </si>
   <si>
-    <t>GONEL</t>
-  </si>
-  <si>
     <t>GRANT COMERCIAL</t>
   </si>
   <si>
@@ -217,87 +157,36 @@
     <t>HAFIZ</t>
   </si>
   <si>
-    <t>HELLA</t>
-  </si>
-  <si>
     <t>HENGST INDUSTRIA DE FILTROS LTDA</t>
   </si>
   <si>
-    <t>HENKEL</t>
-  </si>
-  <si>
-    <t>HIPPER FREIOS</t>
-  </si>
-  <si>
     <t>HOPEBOR AUTO PARTS</t>
   </si>
   <si>
     <t>HUTCHINSON</t>
   </si>
   <si>
-    <t>IKS</t>
-  </si>
-  <si>
-    <t>IMA</t>
-  </si>
-  <si>
-    <t>INA</t>
-  </si>
-  <si>
-    <t>INDISA</t>
-  </si>
-  <si>
     <t>INDUSTRIA METALURGICA ALLI LTDA</t>
   </si>
   <si>
     <t>ITAP</t>
   </si>
   <si>
-    <t>JBL</t>
-  </si>
-  <si>
-    <t>JR8</t>
-  </si>
-  <si>
-    <t>JURID</t>
-  </si>
-  <si>
     <t>JURID DO BRASIL SISTEMAS AUTOMOTIVOS LTDA</t>
   </si>
   <si>
     <t>KATHO AUTO PARTES</t>
   </si>
   <si>
-    <t>KIT &amp; CIA</t>
-  </si>
-  <si>
-    <t>KX3</t>
-  </si>
-  <si>
     <t>LIDER PAPÉIS</t>
   </si>
   <si>
-    <t>LUCAS</t>
-  </si>
-  <si>
-    <t>LUK</t>
-  </si>
-  <si>
-    <t>MAGNETI MARELLI</t>
-  </si>
-  <si>
-    <t>MAGNETRON</t>
-  </si>
-  <si>
     <t>MAHLE INDUSTRIA E COMERCIO LTDA.</t>
   </si>
   <si>
     <t>MAHLE METAL LEVE S A</t>
   </si>
   <si>
-    <t>MANN FILTROS</t>
-  </si>
-  <si>
     <t>MANN HUMMEL BRASIL LTDA</t>
   </si>
   <si>
@@ -307,36 +196,15 @@
     <t>MATILBOR INDUSTRIA DE ARTEFATOS DE BORRACHAS</t>
   </si>
   <si>
-    <t>MAXON OIL</t>
-  </si>
-  <si>
     <t>MDS</t>
   </si>
   <si>
-    <t>METAL LEVE</t>
-  </si>
-  <si>
-    <t>MIDE PARTS</t>
-  </si>
-  <si>
     <t>MONROE AXIOS</t>
   </si>
   <si>
-    <t>MOPAR-FIAT</t>
-  </si>
-  <si>
-    <t>MTE - THOMSON</t>
-  </si>
-  <si>
-    <t>MULTILASER</t>
-  </si>
-  <si>
     <t>NAIR/REPLABOR</t>
   </si>
   <si>
-    <t>NAKATA</t>
-  </si>
-  <si>
     <t>NAKATA AUTOMOTIVA LTDA</t>
   </si>
   <si>
@@ -349,21 +217,9 @@
     <t>NF PLASTICOS</t>
   </si>
   <si>
-    <t>NGK</t>
-  </si>
-  <si>
-    <t>NTN ROLAMENTOS</t>
-  </si>
-  <si>
-    <t>NYTRON</t>
-  </si>
-  <si>
     <t>O.L.M (NORFLEX)</t>
   </si>
   <si>
-    <t>OLIMPIC</t>
-  </si>
-  <si>
     <t>ORI</t>
   </si>
   <si>
@@ -373,27 +229,12 @@
     <t>PERFECT</t>
   </si>
   <si>
-    <t>PETRONAS</t>
-  </si>
-  <si>
     <t>PETRONAS LUBRIFICANTES BRASIL S.A.</t>
   </si>
   <si>
-    <t>PHILIPS</t>
-  </si>
-  <si>
     <t>PHOTON</t>
   </si>
   <si>
-    <t>PIONEER</t>
-  </si>
-  <si>
-    <t>POLYVOX</t>
-  </si>
-  <si>
-    <t>POSITRON</t>
-  </si>
-  <si>
     <t>PYSKO COMERCIO</t>
   </si>
   <si>
@@ -412,75 +253,33 @@
     <t>ROLAMENTOS FAG LTDA.</t>
   </si>
   <si>
-    <t>RUVILLE</t>
-  </si>
-  <si>
-    <t>SABO</t>
-  </si>
-  <si>
-    <t>SACHS</t>
-  </si>
-  <si>
     <t>SAMPEL</t>
   </si>
   <si>
     <t>SAMPEL INDUSTRIA E COM. DE PECAS AUTOMOTIVAS LTDA</t>
   </si>
   <si>
-    <t>SCHADEK</t>
-  </si>
-  <si>
-    <t>SIEMENS VDO</t>
-  </si>
-  <si>
-    <t>SKF</t>
-  </si>
-  <si>
     <t>SKF DO BRASIL LTDA</t>
   </si>
   <si>
-    <t>SNAP-ON</t>
-  </si>
-  <si>
     <t>SOFAPE FABRICANTE DE FILTROS LTDA</t>
   </si>
   <si>
     <t>STABILUS LTDA</t>
   </si>
   <si>
-    <t>STETSOM</t>
-  </si>
-  <si>
     <t>SYL</t>
   </si>
   <si>
-    <t>TANCLICK</t>
-  </si>
-  <si>
-    <t>TARAMPS</t>
-  </si>
-  <si>
     <t>TC CHICOTES</t>
   </si>
   <si>
-    <t>TECFIL</t>
-  </si>
-  <si>
-    <t>TECH ONE</t>
-  </si>
-  <si>
     <t>TENNECO AUTOMOTIVE BRASIL LTDA.</t>
   </si>
   <si>
     <t>TENNECO AUTOMOTIVE DO BRAZIL LTDA.</t>
   </si>
   <si>
-    <t>THERMAL (WAHLER)</t>
-  </si>
-  <si>
-    <t>TIRRENO</t>
-  </si>
-  <si>
     <t>TMD FRICTION DO BRASIL SA</t>
   </si>
   <si>
@@ -490,36 +289,21 @@
     <t>TRIADE</t>
   </si>
   <si>
-    <t>TRW</t>
-  </si>
-  <si>
     <t>TRW AUTOMOTIVE LTDA</t>
   </si>
   <si>
     <t>UNIVERSAL</t>
   </si>
   <si>
-    <t>URBA</t>
-  </si>
-  <si>
     <t>VALCLEI</t>
   </si>
   <si>
-    <t>VALEO</t>
-  </si>
-  <si>
-    <t>VARGA</t>
-  </si>
-  <si>
     <t>VENON DISTRIBUIDORA DE PEÇAS LTDA</t>
   </si>
   <si>
     <t>VGER</t>
   </si>
   <si>
-    <t>VGER CIE</t>
-  </si>
-  <si>
     <t>VIBRASIL</t>
   </si>
   <si>
@@ -533,12 +317,6 @@
   </si>
   <si>
     <t>VOBER INDUSTRIA E COMERCIO LTDA</t>
-  </si>
-  <si>
-    <t>VOLDA</t>
-  </si>
-  <si>
-    <t>WEGA</t>
   </si>
   <si>
     <t>ZF DO BRASIL LTDA</t>
@@ -902,7 +680,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B176"/>
+  <dimension ref="A1:B102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -985,7 +763,7 @@
         <v>10</v>
       </c>
       <c r="B10">
-        <v>15</v>
+        <v>7</v>
       </c>
     </row>
     <row r="11" spans="1:2">
@@ -1001,7 +779,7 @@
         <v>12</v>
       </c>
       <c r="B12">
-        <v>7</v>
+        <v>2</v>
       </c>
     </row>
     <row r="13" spans="1:2">
@@ -1009,7 +787,7 @@
         <v>13</v>
       </c>
       <c r="B13">
-        <v>5</v>
+        <v>13</v>
       </c>
     </row>
     <row r="14" spans="1:2">
@@ -1017,7 +795,7 @@
         <v>14</v>
       </c>
       <c r="B14">
-        <v>9</v>
+        <v>3</v>
       </c>
     </row>
     <row r="15" spans="1:2">
@@ -1025,7 +803,7 @@
         <v>15</v>
       </c>
       <c r="B15">
-        <v>2</v>
+        <v>6</v>
       </c>
     </row>
     <row r="16" spans="1:2">
@@ -1033,7 +811,7 @@
         <v>16</v>
       </c>
       <c r="B16">
-        <v>112</v>
+        <v>3</v>
       </c>
     </row>
     <row r="17" spans="1:2">
@@ -1041,7 +819,7 @@
         <v>17</v>
       </c>
       <c r="B17">
-        <v>3</v>
+        <v>18</v>
       </c>
     </row>
     <row r="18" spans="1:2">
@@ -1049,7 +827,7 @@
         <v>18</v>
       </c>
       <c r="B18">
-        <v>6</v>
+        <v>1</v>
       </c>
     </row>
     <row r="19" spans="1:2">
@@ -1057,7 +835,7 @@
         <v>19</v>
       </c>
       <c r="B19">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="20" spans="1:2">
@@ -1065,7 +843,7 @@
         <v>20</v>
       </c>
       <c r="B20">
-        <v>18</v>
+        <v>2</v>
       </c>
     </row>
     <row r="21" spans="1:2">
@@ -1073,7 +851,7 @@
         <v>21</v>
       </c>
       <c r="B21">
-        <v>223</v>
+        <v>3</v>
       </c>
     </row>
     <row r="22" spans="1:2">
@@ -1089,7 +867,7 @@
         <v>23</v>
       </c>
       <c r="B23">
-        <v>2</v>
+        <v>23</v>
       </c>
     </row>
     <row r="24" spans="1:2">
@@ -1097,7 +875,7 @@
         <v>24</v>
       </c>
       <c r="B24">
-        <v>1</v>
+        <v>31</v>
       </c>
     </row>
     <row r="25" spans="1:2">
@@ -1105,7 +883,7 @@
         <v>25</v>
       </c>
       <c r="B25">
-        <v>2</v>
+        <v>18</v>
       </c>
     </row>
     <row r="26" spans="1:2">
@@ -1113,7 +891,7 @@
         <v>26</v>
       </c>
       <c r="B26">
-        <v>3</v>
+        <v>10</v>
       </c>
     </row>
     <row r="27" spans="1:2">
@@ -1129,7 +907,7 @@
         <v>28</v>
       </c>
       <c r="B28">
-        <v>18</v>
+        <v>2</v>
       </c>
     </row>
     <row r="29" spans="1:2">
@@ -1137,7 +915,7 @@
         <v>29</v>
       </c>
       <c r="B29">
-        <v>351</v>
+        <v>2</v>
       </c>
     </row>
     <row r="30" spans="1:2">
@@ -1145,7 +923,7 @@
         <v>30</v>
       </c>
       <c r="B30">
-        <v>47</v>
+        <v>236</v>
       </c>
     </row>
     <row r="31" spans="1:2">
@@ -1153,7 +931,7 @@
         <v>31</v>
       </c>
       <c r="B31">
-        <v>23</v>
+        <v>204</v>
       </c>
     </row>
     <row r="32" spans="1:2">
@@ -1161,7 +939,7 @@
         <v>32</v>
       </c>
       <c r="B32">
-        <v>31</v>
+        <v>84</v>
       </c>
     </row>
     <row r="33" spans="1:2">
@@ -1169,7 +947,7 @@
         <v>33</v>
       </c>
       <c r="B33">
-        <v>47</v>
+        <v>1</v>
       </c>
     </row>
     <row r="34" spans="1:2">
@@ -1177,7 +955,7 @@
         <v>34</v>
       </c>
       <c r="B34">
-        <v>27</v>
+        <v>3</v>
       </c>
     </row>
     <row r="35" spans="1:2">
@@ -1185,7 +963,7 @@
         <v>35</v>
       </c>
       <c r="B35">
-        <v>18</v>
+        <v>10</v>
       </c>
     </row>
     <row r="36" spans="1:2">
@@ -1193,7 +971,7 @@
         <v>36</v>
       </c>
       <c r="B36">
-        <v>10</v>
+        <v>4</v>
       </c>
     </row>
     <row r="37" spans="1:2">
@@ -1201,7 +979,7 @@
         <v>37</v>
       </c>
       <c r="B37">
-        <v>78</v>
+        <v>5</v>
       </c>
     </row>
     <row r="38" spans="1:2">
@@ -1209,7 +987,7 @@
         <v>38</v>
       </c>
       <c r="B38">
-        <v>1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="39" spans="1:2">
@@ -1217,7 +995,7 @@
         <v>39</v>
       </c>
       <c r="B39">
-        <v>14</v>
+        <v>24</v>
       </c>
     </row>
     <row r="40" spans="1:2">
@@ -1225,7 +1003,7 @@
         <v>40</v>
       </c>
       <c r="B40">
-        <v>21</v>
+        <v>11</v>
       </c>
     </row>
     <row r="41" spans="1:2">
@@ -1241,7 +1019,7 @@
         <v>42</v>
       </c>
       <c r="B42">
-        <v>2</v>
+        <v>8</v>
       </c>
     </row>
     <row r="43" spans="1:2">
@@ -1249,7 +1027,7 @@
         <v>43</v>
       </c>
       <c r="B43">
-        <v>8</v>
+        <v>1</v>
       </c>
     </row>
     <row r="44" spans="1:2">
@@ -1257,7 +1035,7 @@
         <v>44</v>
       </c>
       <c r="B44">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="45" spans="1:2">
@@ -1265,7 +1043,7 @@
         <v>45</v>
       </c>
       <c r="B45">
-        <v>236</v>
+        <v>5</v>
       </c>
     </row>
     <row r="46" spans="1:2">
@@ -1273,7 +1051,7 @@
         <v>46</v>
       </c>
       <c r="B46">
-        <v>204</v>
+        <v>4</v>
       </c>
     </row>
     <row r="47" spans="1:2">
@@ -1281,7 +1059,7 @@
         <v>47</v>
       </c>
       <c r="B47">
-        <v>84</v>
+        <v>1</v>
       </c>
     </row>
     <row r="48" spans="1:2">
@@ -1297,7 +1075,7 @@
         <v>49</v>
       </c>
       <c r="B49">
-        <v>3</v>
+        <v>7</v>
       </c>
     </row>
     <row r="50" spans="1:2">
@@ -1305,7 +1083,7 @@
         <v>50</v>
       </c>
       <c r="B50">
-        <v>49</v>
+        <v>70</v>
       </c>
     </row>
     <row r="51" spans="1:2">
@@ -1313,7 +1091,7 @@
         <v>51</v>
       </c>
       <c r="B51">
-        <v>10</v>
+        <v>2</v>
       </c>
     </row>
     <row r="52" spans="1:2">
@@ -1321,7 +1099,7 @@
         <v>52</v>
       </c>
       <c r="B52">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="53" spans="1:2">
@@ -1329,7 +1107,7 @@
         <v>53</v>
       </c>
       <c r="B53">
-        <v>5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="54" spans="1:2">
@@ -1337,7 +1115,7 @@
         <v>54</v>
       </c>
       <c r="B54">
-        <v>5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="55" spans="1:2">
@@ -1345,7 +1123,7 @@
         <v>55</v>
       </c>
       <c r="B55">
-        <v>24</v>
+        <v>156</v>
       </c>
     </row>
     <row r="56" spans="1:2">
@@ -1353,7 +1131,7 @@
         <v>56</v>
       </c>
       <c r="B56">
-        <v>7</v>
+        <v>1</v>
       </c>
     </row>
     <row r="57" spans="1:2">
@@ -1361,7 +1139,7 @@
         <v>57</v>
       </c>
       <c r="B57">
-        <v>42</v>
+        <v>606</v>
       </c>
     </row>
     <row r="58" spans="1:2">
@@ -1369,7 +1147,7 @@
         <v>58</v>
       </c>
       <c r="B58">
-        <v>29</v>
+        <v>3</v>
       </c>
     </row>
     <row r="59" spans="1:2">
@@ -1377,7 +1155,7 @@
         <v>59</v>
       </c>
       <c r="B59">
-        <v>11</v>
+        <v>2</v>
       </c>
     </row>
     <row r="60" spans="1:2">
@@ -1385,7 +1163,7 @@
         <v>60</v>
       </c>
       <c r="B60">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="61" spans="1:2">
@@ -1393,7 +1171,7 @@
         <v>61</v>
       </c>
       <c r="B61">
-        <v>8</v>
+        <v>5</v>
       </c>
     </row>
     <row r="62" spans="1:2">
@@ -1401,7 +1179,7 @@
         <v>62</v>
       </c>
       <c r="B62">
-        <v>19</v>
+        <v>1</v>
       </c>
     </row>
     <row r="63" spans="1:2">
@@ -1409,7 +1187,7 @@
         <v>63</v>
       </c>
       <c r="B63">
-        <v>1</v>
+        <v>60</v>
       </c>
     </row>
     <row r="64" spans="1:2">
@@ -1417,7 +1195,7 @@
         <v>64</v>
       </c>
       <c r="B64">
-        <v>3</v>
+        <v>22</v>
       </c>
     </row>
     <row r="65" spans="1:2">
@@ -1425,7 +1203,7 @@
         <v>65</v>
       </c>
       <c r="B65">
-        <v>5</v>
+        <v>23</v>
       </c>
     </row>
     <row r="66" spans="1:2">
@@ -1433,7 +1211,7 @@
         <v>66</v>
       </c>
       <c r="B66">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="67" spans="1:2">
@@ -1441,7 +1219,7 @@
         <v>67</v>
       </c>
       <c r="B67">
-        <v>15</v>
+        <v>2</v>
       </c>
     </row>
     <row r="68" spans="1:2">
@@ -1457,7 +1235,7 @@
         <v>69</v>
       </c>
       <c r="B69">
-        <v>7</v>
+        <v>1</v>
       </c>
     </row>
     <row r="70" spans="1:2">
@@ -1465,7 +1243,7 @@
         <v>70</v>
       </c>
       <c r="B70">
-        <v>142</v>
+        <v>121</v>
       </c>
     </row>
     <row r="71" spans="1:2">
@@ -1473,7 +1251,7 @@
         <v>71</v>
       </c>
       <c r="B71">
-        <v>1</v>
+        <v>172</v>
       </c>
     </row>
     <row r="72" spans="1:2">
@@ -1481,7 +1259,7 @@
         <v>72</v>
       </c>
       <c r="B72">
-        <v>7</v>
+        <v>1</v>
       </c>
     </row>
     <row r="73" spans="1:2">
@@ -1489,7 +1267,7 @@
         <v>73</v>
       </c>
       <c r="B73">
-        <v>30</v>
+        <v>1</v>
       </c>
     </row>
     <row r="74" spans="1:2">
@@ -1497,7 +1275,7 @@
         <v>74</v>
       </c>
       <c r="B74">
-        <v>25</v>
+        <v>7</v>
       </c>
     </row>
     <row r="75" spans="1:2">
@@ -1505,7 +1283,7 @@
         <v>75</v>
       </c>
       <c r="B75">
-        <v>83</v>
+        <v>1</v>
       </c>
     </row>
     <row r="76" spans="1:2">
@@ -1513,7 +1291,7 @@
         <v>76</v>
       </c>
       <c r="B76">
-        <v>41</v>
+        <v>1</v>
       </c>
     </row>
     <row r="77" spans="1:2">
@@ -1521,7 +1299,7 @@
         <v>77</v>
       </c>
       <c r="B77">
-        <v>70</v>
+        <v>141</v>
       </c>
     </row>
     <row r="78" spans="1:2">
@@ -1529,7 +1307,7 @@
         <v>78</v>
       </c>
       <c r="B78">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="79" spans="1:2">
@@ -1537,7 +1315,7 @@
         <v>79</v>
       </c>
       <c r="B79">
-        <v>17</v>
+        <v>7</v>
       </c>
     </row>
     <row r="80" spans="1:2">
@@ -1553,7 +1331,7 @@
         <v>81</v>
       </c>
       <c r="B81">
-        <v>18</v>
+        <v>1</v>
       </c>
     </row>
     <row r="82" spans="1:2">
@@ -1561,7 +1339,7 @@
         <v>82</v>
       </c>
       <c r="B82">
-        <v>2</v>
+        <v>276</v>
       </c>
     </row>
     <row r="83" spans="1:2">
@@ -1569,7 +1347,7 @@
         <v>83</v>
       </c>
       <c r="B83">
-        <v>1</v>
+        <v>79</v>
       </c>
     </row>
     <row r="84" spans="1:2">
@@ -1577,7 +1355,7 @@
         <v>84</v>
       </c>
       <c r="B84">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="85" spans="1:2">
@@ -1585,7 +1363,7 @@
         <v>85</v>
       </c>
       <c r="B85">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="86" spans="1:2">
@@ -1601,7 +1379,7 @@
         <v>87</v>
       </c>
       <c r="B87">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="88" spans="1:2">
@@ -1609,7 +1387,7 @@
         <v>88</v>
       </c>
       <c r="B88">
-        <v>66</v>
+        <v>8</v>
       </c>
     </row>
     <row r="89" spans="1:2">
@@ -1617,7 +1395,7 @@
         <v>89</v>
       </c>
       <c r="B89">
-        <v>74</v>
+        <v>1</v>
       </c>
     </row>
     <row r="90" spans="1:2">
@@ -1625,7 +1403,7 @@
         <v>90</v>
       </c>
       <c r="B90">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="91" spans="1:2">
@@ -1633,7 +1411,7 @@
         <v>91</v>
       </c>
       <c r="B91">
-        <v>156</v>
+        <v>2</v>
       </c>
     </row>
     <row r="92" spans="1:2">
@@ -1641,7 +1419,7 @@
         <v>92</v>
       </c>
       <c r="B92">
-        <v>1</v>
+        <v>9</v>
       </c>
     </row>
     <row r="93" spans="1:2">
@@ -1649,7 +1427,7 @@
         <v>93</v>
       </c>
       <c r="B93">
-        <v>70</v>
+        <v>2</v>
       </c>
     </row>
     <row r="94" spans="1:2">
@@ -1657,7 +1435,7 @@
         <v>94</v>
       </c>
       <c r="B94">
-        <v>606</v>
+        <v>1</v>
       </c>
     </row>
     <row r="95" spans="1:2">
@@ -1665,7 +1443,7 @@
         <v>95</v>
       </c>
       <c r="B95">
-        <v>3</v>
+        <v>16</v>
       </c>
     </row>
     <row r="96" spans="1:2">
@@ -1673,7 +1451,7 @@
         <v>96</v>
       </c>
       <c r="B96">
-        <v>2</v>
+        <v>11</v>
       </c>
     </row>
     <row r="97" spans="1:2">
@@ -1681,7 +1459,7 @@
         <v>97</v>
       </c>
       <c r="B97">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="98" spans="1:2">
@@ -1697,7 +1475,7 @@
         <v>99</v>
       </c>
       <c r="B99">
-        <v>203</v>
+        <v>1</v>
       </c>
     </row>
     <row r="100" spans="1:2">
@@ -1705,7 +1483,7 @@
         <v>100</v>
       </c>
       <c r="B100">
-        <v>8</v>
+        <v>1</v>
       </c>
     </row>
     <row r="101" spans="1:2">
@@ -1713,7 +1491,7 @@
         <v>101</v>
       </c>
       <c r="B101">
-        <v>5</v>
+        <v>138</v>
       </c>
     </row>
     <row r="102" spans="1:2">
@@ -1721,598 +1499,6 @@
         <v>102</v>
       </c>
       <c r="B102">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="103" spans="1:2">
-      <c r="A103" s="1" t="s">
-        <v>103</v>
-      </c>
-      <c r="B103">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="104" spans="1:2">
-      <c r="A104" s="1" t="s">
-        <v>104</v>
-      </c>
-      <c r="B104">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="105" spans="1:2">
-      <c r="A105" s="1" t="s">
-        <v>105</v>
-      </c>
-      <c r="B105">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="106" spans="1:2">
-      <c r="A106" s="1" t="s">
-        <v>106</v>
-      </c>
-      <c r="B106">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="107" spans="1:2">
-      <c r="A107" s="1" t="s">
-        <v>107</v>
-      </c>
-      <c r="B107">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="108" spans="1:2">
-      <c r="A108" s="1" t="s">
-        <v>108</v>
-      </c>
-      <c r="B108">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="109" spans="1:2">
-      <c r="A109" s="1" t="s">
-        <v>109</v>
-      </c>
-      <c r="B109">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="110" spans="1:2">
-      <c r="A110" s="1" t="s">
-        <v>110</v>
-      </c>
-      <c r="B110">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="111" spans="1:2">
-      <c r="A111" s="1" t="s">
-        <v>111</v>
-      </c>
-      <c r="B111">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="112" spans="1:2">
-      <c r="A112" s="1" t="s">
-        <v>112</v>
-      </c>
-      <c r="B112">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="113" spans="1:2">
-      <c r="A113" s="1" t="s">
-        <v>113</v>
-      </c>
-      <c r="B113">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="114" spans="1:2">
-      <c r="A114" s="1" t="s">
-        <v>114</v>
-      </c>
-      <c r="B114">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="115" spans="1:2">
-      <c r="A115" s="1" t="s">
-        <v>115</v>
-      </c>
-      <c r="B115">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="116" spans="1:2">
-      <c r="A116" s="1" t="s">
-        <v>116</v>
-      </c>
-      <c r="B116">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="117" spans="1:2">
-      <c r="A117" s="1" t="s">
-        <v>117</v>
-      </c>
-      <c r="B117">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="118" spans="1:2">
-      <c r="A118" s="1" t="s">
-        <v>118</v>
-      </c>
-      <c r="B118">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="119" spans="1:2">
-      <c r="A119" s="1" t="s">
-        <v>119</v>
-      </c>
-      <c r="B119">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="120" spans="1:2">
-      <c r="A120" s="1" t="s">
-        <v>120</v>
-      </c>
-      <c r="B120">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="121" spans="1:2">
-      <c r="A121" s="1" t="s">
-        <v>121</v>
-      </c>
-      <c r="B121">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="122" spans="1:2">
-      <c r="A122" s="1" t="s">
-        <v>122</v>
-      </c>
-      <c r="B122">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="123" spans="1:2">
-      <c r="A123" s="1" t="s">
-        <v>123</v>
-      </c>
-      <c r="B123">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="124" spans="1:2">
-      <c r="A124" s="1" t="s">
-        <v>124</v>
-      </c>
-      <c r="B124">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="125" spans="1:2">
-      <c r="A125" s="1" t="s">
-        <v>125</v>
-      </c>
-      <c r="B125">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="126" spans="1:2">
-      <c r="A126" s="1" t="s">
-        <v>126</v>
-      </c>
-      <c r="B126">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="127" spans="1:2">
-      <c r="A127" s="1" t="s">
-        <v>127</v>
-      </c>
-      <c r="B127">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="128" spans="1:2">
-      <c r="A128" s="1" t="s">
-        <v>128</v>
-      </c>
-      <c r="B128">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="129" spans="1:2">
-      <c r="A129" s="1" t="s">
-        <v>129</v>
-      </c>
-      <c r="B129">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="130" spans="1:2">
-      <c r="A130" s="1" t="s">
-        <v>130</v>
-      </c>
-      <c r="B130">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="131" spans="1:2">
-      <c r="A131" s="1" t="s">
-        <v>131</v>
-      </c>
-      <c r="B131">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="132" spans="1:2">
-      <c r="A132" s="1" t="s">
-        <v>132</v>
-      </c>
-      <c r="B132">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="133" spans="1:2">
-      <c r="A133" s="1" t="s">
-        <v>133</v>
-      </c>
-      <c r="B133">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="134" spans="1:2">
-      <c r="A134" s="1" t="s">
-        <v>134</v>
-      </c>
-      <c r="B134">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="135" spans="1:2">
-      <c r="A135" s="1" t="s">
-        <v>135</v>
-      </c>
-      <c r="B135">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="136" spans="1:2">
-      <c r="A136" s="1" t="s">
-        <v>136</v>
-      </c>
-      <c r="B136">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="137" spans="1:2">
-      <c r="A137" s="1" t="s">
-        <v>137</v>
-      </c>
-      <c r="B137">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="138" spans="1:2">
-      <c r="A138" s="1" t="s">
-        <v>138</v>
-      </c>
-      <c r="B138">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="139" spans="1:2">
-      <c r="A139" s="1" t="s">
-        <v>139</v>
-      </c>
-      <c r="B139">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="140" spans="1:2">
-      <c r="A140" s="1" t="s">
-        <v>140</v>
-      </c>
-      <c r="B140">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="141" spans="1:2">
-      <c r="A141" s="1" t="s">
-        <v>141</v>
-      </c>
-      <c r="B141">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="142" spans="1:2">
-      <c r="A142" s="1" t="s">
-        <v>142</v>
-      </c>
-      <c r="B142">
-        <v>276</v>
-      </c>
-    </row>
-    <row r="143" spans="1:2">
-      <c r="A143" s="1" t="s">
-        <v>143</v>
-      </c>
-      <c r="B143">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="144" spans="1:2">
-      <c r="A144" s="1" t="s">
-        <v>144</v>
-      </c>
-      <c r="B144">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="145" spans="1:2">
-      <c r="A145" s="1" t="s">
-        <v>145</v>
-      </c>
-      <c r="B145">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="146" spans="1:2">
-      <c r="A146" s="1" t="s">
-        <v>146</v>
-      </c>
-      <c r="B146">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="147" spans="1:2">
-      <c r="A147" s="1" t="s">
-        <v>147</v>
-      </c>
-      <c r="B147">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="148" spans="1:2">
-      <c r="A148" s="1" t="s">
-        <v>148</v>
-      </c>
-      <c r="B148">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="149" spans="1:2">
-      <c r="A149" s="1" t="s">
-        <v>149</v>
-      </c>
-      <c r="B149">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="150" spans="1:2">
-      <c r="A150" s="1" t="s">
-        <v>150</v>
-      </c>
-      <c r="B150">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="151" spans="1:2">
-      <c r="A151" s="1" t="s">
-        <v>151</v>
-      </c>
-      <c r="B151">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="152" spans="1:2">
-      <c r="A152" s="1" t="s">
-        <v>152</v>
-      </c>
-      <c r="B152">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="153" spans="1:2">
-      <c r="A153" s="1" t="s">
-        <v>153</v>
-      </c>
-      <c r="B153">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="154" spans="1:2">
-      <c r="A154" s="1" t="s">
-        <v>154</v>
-      </c>
-      <c r="B154">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="155" spans="1:2">
-      <c r="A155" s="1" t="s">
-        <v>155</v>
-      </c>
-      <c r="B155">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="156" spans="1:2">
-      <c r="A156" s="1" t="s">
-        <v>156</v>
-      </c>
-      <c r="B156">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="157" spans="1:2">
-      <c r="A157" s="1" t="s">
-        <v>157</v>
-      </c>
-      <c r="B157">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="158" spans="1:2">
-      <c r="A158" s="1" t="s">
-        <v>158</v>
-      </c>
-      <c r="B158">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="159" spans="1:2">
-      <c r="A159" s="1" t="s">
-        <v>159</v>
-      </c>
-      <c r="B159">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="160" spans="1:2">
-      <c r="A160" s="1" t="s">
-        <v>160</v>
-      </c>
-      <c r="B160">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="161" spans="1:2">
-      <c r="A161" s="1" t="s">
-        <v>161</v>
-      </c>
-      <c r="B161">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="162" spans="1:2">
-      <c r="A162" s="1" t="s">
-        <v>162</v>
-      </c>
-      <c r="B162">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="163" spans="1:2">
-      <c r="A163" s="1" t="s">
-        <v>163</v>
-      </c>
-      <c r="B163">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="164" spans="1:2">
-      <c r="A164" s="1" t="s">
-        <v>164</v>
-      </c>
-      <c r="B164">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="165" spans="1:2">
-      <c r="A165" s="1" t="s">
-        <v>165</v>
-      </c>
-      <c r="B165">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="166" spans="1:2">
-      <c r="A166" s="1" t="s">
-        <v>166</v>
-      </c>
-      <c r="B166">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="167" spans="1:2">
-      <c r="A167" s="1" t="s">
-        <v>167</v>
-      </c>
-      <c r="B167">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="168" spans="1:2">
-      <c r="A168" s="1" t="s">
-        <v>168</v>
-      </c>
-      <c r="B168">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="169" spans="1:2">
-      <c r="A169" s="1" t="s">
-        <v>169</v>
-      </c>
-      <c r="B169">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="170" spans="1:2">
-      <c r="A170" s="1" t="s">
-        <v>170</v>
-      </c>
-      <c r="B170">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="171" spans="1:2">
-      <c r="A171" s="1" t="s">
-        <v>171</v>
-      </c>
-      <c r="B171">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="172" spans="1:2">
-      <c r="A172" s="1" t="s">
-        <v>172</v>
-      </c>
-      <c r="B172">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="173" spans="1:2">
-      <c r="A173" s="1" t="s">
-        <v>173</v>
-      </c>
-      <c r="B173">
-        <v>248</v>
-      </c>
-    </row>
-    <row r="174" spans="1:2">
-      <c r="A174" s="1" t="s">
-        <v>174</v>
-      </c>
-      <c r="B174">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="175" spans="1:2">
-      <c r="A175" s="1" t="s">
-        <v>175</v>
-      </c>
-      <c r="B175">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="176" spans="1:2">
-      <c r="A176" s="1" t="s">
-        <v>176</v>
-      </c>
-      <c r="B176">
         <v>14</v>
       </c>
     </row>
